--- a/data/Sample Equations.xlsx
+++ b/data/Sample Equations.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjorn\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc151\Documents\Toolsmithing\ricks-cafe-american\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE2F14-BF79-4AB3-9640-088E127DC2DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0578981D-3DF5-40F8-BE5F-56A335AEEC75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>System Value</t>
   </si>
@@ -124,12 +123,21 @@
   </si>
   <si>
     <t>decibel loss</t>
+  </si>
+  <si>
+    <t>Constraint Use</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,25 +482,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669AB8B-0F58-4270-9617-F5E3AC4C7B7A}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" customWidth="1"/>
-    <col min="9" max="12" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="3" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="36.73046875" customWidth="1"/>
+    <col min="6" max="8" width="21.86328125" customWidth="1"/>
+    <col min="9" max="9" width="42.59765625" customWidth="1"/>
+    <col min="10" max="13" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,22 +511,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -529,22 +540,25 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -555,22 +569,25 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -581,22 +598,25 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -607,22 +627,25 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -633,22 +656,25 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -659,22 +685,25 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -685,22 +714,25 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -711,22 +743,25 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -737,18 +772,21 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
     </row>
